--- a/Supplementary_Data_Tables/Excel_files/Supplementary_Table1_pdb.xlsx
+++ b/Supplementary_Data_Tables/Excel_files/Supplementary_Table1_pdb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="0" windowWidth="23640" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="3060" yWindow="0" windowWidth="23640" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Srm1</t>
   </si>
@@ -127,14 +127,32 @@
     </r>
   </si>
   <si>
-    <t>Partner source species</t>
-  </si>
-  <si>
     <t>Ran/Gsp1 source species</t>
   </si>
   <si>
+    <t>S. pombe</t>
+  </si>
+  <si>
+    <t>H. sapiens</t>
+  </si>
+  <si>
+    <t>1a2k</t>
+  </si>
+  <si>
+    <t>C. lupus</t>
+  </si>
+  <si>
+    <t>R. norvegicus</t>
+  </si>
+  <si>
+    <t>S. cerevisiae</t>
+  </si>
+  <si>
+    <t>4ol0</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Sequence identity to </t>
+      <t xml:space="preserve">Interface sequence identity to </t>
     </r>
     <r>
       <rPr>
@@ -158,7 +176,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Sequence identity to </t>
+      <t xml:space="preserve">Interface sequence identity to </t>
     </r>
     <r>
       <rPr>
@@ -181,25 +199,55 @@
     </r>
   </si>
   <si>
-    <t>S. pombe</t>
-  </si>
-  <si>
-    <t>H. sapiens</t>
-  </si>
-  <si>
-    <t>1a2k</t>
-  </si>
-  <si>
-    <t>C. lupus</t>
-  </si>
-  <si>
-    <t>R. norvegicus</t>
-  </si>
-  <si>
-    <t>S. cerevisiae</t>
-  </si>
-  <si>
-    <t>4ol0</t>
+    <r>
+      <t xml:space="preserve">Overall sequence identity to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>S. cerevisiae</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Gsp1 [%]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall sequence identity to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>S. cerevisiae</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> partner [%]</t>
+    </r>
+  </si>
+  <si>
+    <t>Partner protein source species</t>
   </si>
 </sst>
 </file>
@@ -319,7 +367,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,16 +453,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,8 +473,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -468,6 +521,8 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -510,6 +565,8 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,374 +896,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="50" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="50" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="85" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E4" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>42.9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>94</v>
+      </c>
+      <c r="H11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F14" s="7">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7">
         <v>82.6</v>
       </c>
-      <c r="F3" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="F15" s="7">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G15" s="2">
+        <v>92</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7">
         <v>82.6</v>
       </c>
-      <c r="F4" s="2">
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="F16" s="7">
+        <v>20.7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E17" s="7">
+        <v>82.6</v>
+      </c>
+      <c r="F17" s="7">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7">
         <v>82.6</v>
       </c>
-      <c r="F5" s="2">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2">
-        <v>100</v>
-      </c>
-      <c r="F13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F15" s="2">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2">
-        <v>82.6</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="F18" s="7">
         <v>24.7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>88</v>
+      </c>
+      <c r="H18" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
